--- a/volatility/src/calc_new.xlsx
+++ b/volatility/src/calc_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="8560" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="60">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>USD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUDUSD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -324,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -348,6 +356,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,21 +690,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
+    <row r="1" spans="1:13" ht="24" customHeight="1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1">
-        <v>1.2189999999999901</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -708,7 +721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1">
+    <row r="2" spans="1:13" ht="24" customHeight="1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -716,10 +729,10 @@
         <v>2.1039999999999899</v>
       </c>
       <c r="D2" s="4">
-        <v>3861949</v>
+        <v>4000000</v>
       </c>
       <c r="F2" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>53</v>
@@ -728,7 +741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
+    <row r="3" spans="1:13" ht="24" customHeight="1">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -742,7 +755,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
+    <row r="4" spans="1:13" ht="24" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -756,7 +769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+    <row r="5" spans="1:13" ht="24" customHeight="1">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -764,13 +777,13 @@
         <v>1.4790000000000001</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -778,21 +791,27 @@
         <v>1.325</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
         <v>1.526</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -800,39 +819,81 @@
         <v>1.367</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
+    <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
         <v>1.0579999999999901</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10">
         <v>0.88500000000000201</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" customHeight="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
         <v>0.91599999999999404</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5">
+        <f>IF(K11="JPY",L11,L11/100)</f>
+        <v>1.05799999999999E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <f>VLOOKUP(K11,master!$H$1:$I$7,2,0)</f>
+        <v>111</v>
+      </c>
+      <c r="I11" s="5">
+        <f>ROUNDDOWN(master!$D$2*(1/L11)*(100/H11)/100*master!$F$2,0)</f>
+        <v>8515</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f>MID(F11,4,3)</f>
+        <v>USD</v>
+      </c>
+      <c r="L11" s="7">
+        <f>VLOOKUP(F11,master!$A$1:$B$20,2,0)</f>
+        <v>1.0579999999999901</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" customHeight="1">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12">
         <v>0.78099999999999803</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" customHeight="1">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -840,7 +901,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:13" ht="24" customHeight="1">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -848,7 +909,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1">
+    <row r="15" spans="1:13" ht="24" customHeight="1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -856,7 +917,7 @@
         <v>1.1040000000000101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1">
+    <row r="16" spans="1:13" ht="24" customHeight="1">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -902,6 +963,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -965,7 +1027,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>14125</v>
+        <v>7315</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1037,10 +1099,8 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1104,7 +1164,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>14573</v>
+        <v>7547</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1176,7 +1236,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1242,7 +1301,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>17179</v>
+        <v>8896</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1314,7 +1373,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1380,7 +1438,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>9177</v>
+        <v>4752</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1452,7 +1510,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1518,7 +1575,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>10686</v>
+        <v>5534</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1590,7 +1647,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1656,7 +1712,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>16968</v>
+        <v>8787</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1728,7 +1784,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1743,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1787,14 +1842,14 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.2189999999999901</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>15840</v>
+        <v>9990</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1808,7 +1863,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.2189999999999901</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1827,11 +1882,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>101.21</v>
+        <v>101</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>102.42</v>
+        <v>102</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
@@ -1852,11 +1907,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>98.78</v>
+        <v>98.99</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>97.56</v>
+        <v>97.98</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
@@ -1929,11 +1984,11 @@
       </c>
       <c r="D3" s="5">
         <f>master!$I$5</f>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>29196</v>
+        <v>11037</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2068,11 +2123,11 @@
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>16442</v>
+        <v>12947</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2144,6 +2199,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2206,11 +2262,11 @@
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>13229</v>
+        <v>10417</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2282,6 +2338,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2297,7 +2354,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2350,7 +2407,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>14908</v>
+        <v>7720</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2485,11 +2542,11 @@
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>11762</v>
+        <v>9262</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2561,6 +2618,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2623,11 +2681,11 @@
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>18991</v>
+        <v>14954</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2699,6 +2757,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2767,7 +2826,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>11836</v>
+        <v>6129</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2905,7 +2964,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>14886</v>
+        <v>7709</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3043,7 +3102,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>18331</v>
+        <v>9493</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3181,7 +3240,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>15757</v>
+        <v>8160</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3253,7 +3312,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -3320,7 +3378,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>14212</v>
+        <v>7360</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3392,7 +3450,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -3459,7 +3516,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>19656</v>
+        <v>10179</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3531,7 +3588,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -3598,7 +3654,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>17411</v>
+        <v>9016</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3670,10 +3726,8 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc_new.xlsx
+++ b/volatility/src/calc_new.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="61">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -257,7 +257,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AUDUSD</t>
+    <t>USDJPY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -693,7 +697,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -863,23 +867,23 @@
       </c>
       <c r="G11" s="5">
         <f>IF(K11="JPY",L11,L11/100)</f>
-        <v>1.05799999999999E-2</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="H11" s="5">
         <f>VLOOKUP(K11,master!$H$1:$I$7,2,0)</f>
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I11" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/L11)*(100/H11)/100*master!$F$2,0)</f>
-        <v>8515</v>
+        <v>9990</v>
       </c>
       <c r="K11" s="9" t="str">
         <f>MID(F11,4,3)</f>
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="L11" s="7">
         <f>VLOOKUP(F11,master!$A$1:$B$20,2,0)</f>
-        <v>1.0579999999999901</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -908,6 +912,11 @@
       <c r="B14">
         <v>1.1240000000000001</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="24" customHeight="1">
       <c r="A15" t="s">
@@ -915,6 +924,17 @@
       </c>
       <c r="B15">
         <v>1.1040000000000101</v>
+      </c>
+      <c r="F15" s="5">
+        <v>112.587</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15+L11</f>
+        <v>113.58800000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <f>F15-L11</f>
+        <v>111.586</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1">
@@ -1784,6 +1804,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2481,7 +2502,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc_new.xlsx
+++ b/volatility/src/calc_new.xlsx
@@ -697,7 +697,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -710,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>1.0009999999999999</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>2.1039999999999899</v>
       </c>
       <c r="D2" s="4">
-        <v>4000000</v>
+        <v>400</v>
       </c>
       <c r="F2" s="2">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>53</v>
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="I7" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1">
@@ -822,6 +822,10 @@
       <c r="B8">
         <v>1.367</v>
       </c>
+      <c r="K8" s="1">
+        <f>D2*10000</f>
+        <v>4000000</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="A9" t="s">
@@ -867,15 +871,15 @@
       </c>
       <c r="G11" s="5">
         <f>IF(K11="JPY",L11,L11/100)</f>
-        <v>1.0009999999999999</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5">
         <f>VLOOKUP(K11,master!$H$1:$I$7,2,0)</f>
         <v>100</v>
       </c>
       <c r="I11" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/L11)*(100/H11)/100*master!$F$2,0)</f>
-        <v>9990</v>
+        <f>ROUNDDOWN($K$8*(1/L11)*(100/H11)/100*$F$2,0)</f>
+        <v>6000</v>
       </c>
       <c r="K11" s="9" t="str">
         <f>MID(F11,4,3)</f>
@@ -883,7 +887,7 @@
       </c>
       <c r="L11" s="7">
         <f>VLOOKUP(F11,master!$A$1:$B$20,2,0)</f>
-        <v>1.0009999999999999</v>
+        <v>1</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -930,11 +934,11 @@
       </c>
       <c r="G15" s="5">
         <f>F15+L11</f>
-        <v>113.58800000000001</v>
+        <v>113.587</v>
       </c>
       <c r="H15" s="5">
         <f>F15-L11</f>
-        <v>111.586</v>
+        <v>111.587</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1">
@@ -983,7 +987,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1047,7 +1050,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>7315</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1184,7 +1187,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>7547</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1321,7 +1324,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>8896</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1458,7 +1461,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>4752</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1595,7 +1598,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>5534</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1732,7 +1735,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>8787</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1804,7 +1807,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1863,14 +1865,14 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.0009999999999999</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>9990</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)</f>
@@ -1884,7 +1886,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.0009999999999999</v>
+        <v>1</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1911,7 +1913,7 @@
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1928,21 +1930,20 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>98.99</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>97.98</v>
+        <v>98</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2009,7 +2010,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>11037</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2081,7 +2082,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>12947</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2220,7 +2220,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>10417</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2359,7 +2358,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2428,7 +2426,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>7720</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2566,7 +2564,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>9262</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2638,7 +2636,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2705,7 +2702,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>14954</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2777,7 +2774,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2846,7 +2842,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>6129</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -2984,7 +2980,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>7709</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3122,7 +3118,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>9493</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3260,7 +3256,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>8160</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3398,7 +3394,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>7360</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3536,7 +3532,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>10179</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>
@@ -3674,7 +3670,7 @@
       </c>
       <c r="E3" s="5">
         <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
-        <v>9016</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <f>AVERAGE(G3:H3)/100</f>

--- a/volatility/src/calc_new.xlsx
+++ b/volatility/src/calc_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="5800" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -710,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>1.0650000000000099</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>2.1039999999999899</v>
+        <v>1.4159999999999899</v>
       </c>
       <c r="D2" s="4">
         <v>400</v>
@@ -750,7 +750,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>1.31499999999999</v>
+        <v>1.1809999999999801</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>54</v>
@@ -764,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.80699999999998</v>
+        <v>2.5389999999999802</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>55</v>
@@ -778,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1.4790000000000001</v>
+        <v>2.0739999999999901</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>58</v>
@@ -792,7 +792,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.325</v>
+        <v>1.171</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>56</v>
@@ -806,7 +806,7 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>1.526</v>
+        <v>1.37</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>57</v>
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1.367</v>
+        <v>1.373</v>
       </c>
       <c r="K8" s="1">
         <f>D2*10000</f>
@@ -832,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1.0579999999999901</v>
+        <v>0.95899999999999797</v>
       </c>
       <c r="M9" s="9"/>
     </row>
@@ -841,7 +841,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0.88500000000000201</v>
+        <v>0.96001000000000503</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
@@ -864,14 +864,14 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.91599999999999404</v>
+        <v>0.98199999999999399</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="5">
         <f>IF(K11="JPY",L11,L11/100)</f>
-        <v>1</v>
+        <v>1.0650000000000099</v>
       </c>
       <c r="H11" s="5">
         <f>VLOOKUP(K11,master!$H$1:$I$7,2,0)</f>
@@ -879,7 +879,7 @@
       </c>
       <c r="I11" s="5">
         <f>ROUNDDOWN($K$8*(1/L11)*(100/H11)/100*$F$2,0)</f>
-        <v>6000</v>
+        <v>5633</v>
       </c>
       <c r="K11" s="9" t="str">
         <f>MID(F11,4,3)</f>
@@ -887,7 +887,7 @@
       </c>
       <c r="L11" s="7">
         <f>VLOOKUP(F11,master!$A$1:$B$20,2,0)</f>
-        <v>1</v>
+        <v>1.0650000000000099</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -896,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.78099999999999803</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -906,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>1.1379999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" customHeight="1">
@@ -914,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.1240000000000001</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>60</v>
@@ -927,18 +927,18 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1.1040000000000101</v>
+        <v>0.97399999999998599</v>
       </c>
       <c r="F15" s="5">
         <v>112.587</v>
       </c>
       <c r="G15" s="5">
         <f>F15+L11</f>
-        <v>113.587</v>
+        <v>113.65200000000002</v>
       </c>
       <c r="H15" s="5">
         <f>F15-L11</f>
-        <v>111.587</v>
+        <v>111.52199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1">
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1.224</v>
+        <v>1.8359999999999901</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24" customHeight="1">
@@ -954,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>0.94900000000001095</v>
+        <v>0.96700000000000597</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24" customHeight="1">
@@ -962,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>0.90600000000000602</v>
+        <v>0.83900000000001196</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" customHeight="1">
@@ -970,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>1.59899999999999</v>
+        <v>1.9249999999999901</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24" customHeight="1">
@@ -978,7 +978,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.0139999999999998</v>
+        <v>2.6519999999999802</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.367</v>
+        <v>1.373</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.367</v>
+        <v>1.373</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1083,11 +1083,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>101.36</v>
+        <v>101.37</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>102.72</v>
+        <v>102.74</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
@@ -1108,11 +1108,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>98.63</v>
+        <v>98.62</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>97.26</v>
+        <v>97.24</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
@@ -1180,7 +1180,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.325</v>
+        <v>1.171</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.325</v>
+        <v>1.171</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1220,11 +1220,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>101.32</v>
+        <v>101.17</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>102.64</v>
+        <v>102.34</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
@@ -1245,11 +1245,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>98.67</v>
+        <v>98.82</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>97.34</v>
+        <v>97.64</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
@@ -1317,7 +1317,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.1240000000000001</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.1240000000000001</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1357,11 +1357,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>101.12</v>
+        <v>101.01</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>102.24</v>
+        <v>102.02</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
@@ -1382,11 +1382,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>98.87</v>
+        <v>98.98</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>97.74</v>
+        <v>97.96</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
@@ -1454,7 +1454,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>2.1039999999999899</v>
+        <v>1.4159999999999899</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>2.1039999999999899</v>
+        <v>1.4159999999999899</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1494,11 +1494,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>102.1</v>
+        <v>101.41</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>104.2</v>
+        <v>102.82</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
@@ -1519,11 +1519,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>97.89</v>
+        <v>98.58</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>95.78</v>
+        <v>97.16</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
@@ -1591,7 +1591,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.80699999999998</v>
+        <v>2.5389999999999802</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.80699999999998</v>
+        <v>2.5389999999999802</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1631,11 +1631,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>101.8</v>
+        <v>102.53</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>103.6</v>
+        <v>105.06</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
@@ -1656,11 +1656,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>98.19</v>
+        <v>97.46</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>96.38</v>
+        <v>94.92</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
@@ -1728,7 +1728,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.1379999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.1379999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1768,15 +1768,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>101.13</v>
+        <v>101.17</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>102.26</v>
+        <v>102.34</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1793,15 +1793,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>98.86</v>
+        <v>98.83</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>97.72</v>
+        <v>97.66</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1865,7 +1865,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1</v>
+        <v>1.0650000000000099</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1</v>
+        <v>1.0650000000000099</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1905,15 +1905,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>101</v>
+        <v>101.06</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>102</v>
+        <v>102.12</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
-        <v>100</v>
+        <v>99.99</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1930,15 +1930,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>99</v>
+        <v>98.93</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>98</v>
+        <v>97.86</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
-        <v>100</v>
+        <v>99.99</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2002,7 +2002,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.90600000000000602</v>
+        <v>0.83900000000001196</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$5</f>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.0600000000000611E-3</v>
+        <v>8.3900000000001196E-3</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2043,11 +2043,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0089999999999999</v>
+        <v>1.0083</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.018</v>
+        <v>1.0165999999999999</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2068,11 +2068,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.9909</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.98180000000000001</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2082,6 +2082,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2140,7 +2141,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.0579999999999901</v>
+        <v>0.95899999999999797</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
@@ -2162,7 +2163,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.05799999999999E-2</v>
+        <v>9.5899999999999805E-3</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2181,11 +2182,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0105</v>
+        <v>1.0095000000000001</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0209999999999999</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2206,11 +2207,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98939999999999995</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.9788</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2220,6 +2221,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2278,7 +2280,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.31499999999999</v>
+        <v>1.1809999999999801</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
@@ -2300,7 +2302,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.31499999999999E-2</v>
+        <v>1.18099999999998E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2319,11 +2321,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0130999999999999</v>
+        <v>1.0118</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0262</v>
+        <v>1.0236000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2344,11 +2346,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98680000000000001</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.97360000000000002</v>
+        <v>0.97619999999999996</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2358,6 +2360,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2418,7 +2421,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.59899999999999</v>
+        <v>1.9249999999999901</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$1</f>
@@ -2440,7 +2443,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.59899999999999E-2</v>
+        <v>1.9249999999999899E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2459,11 +2462,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0159</v>
+        <v>1.0192000000000001</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0318000000000001</v>
+        <v>1.0384</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2484,11 +2487,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98399999999999999</v>
+        <v>0.98070000000000002</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.96799999999999997</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2556,7 +2559,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.4790000000000001</v>
+        <v>2.0739999999999901</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
@@ -2578,7 +2581,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.4790000000000001E-2</v>
+        <v>2.0739999999999901E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2597,11 +2600,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0146999999999999</v>
+        <v>1.0206999999999999</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0294000000000001</v>
+        <v>1.0414000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2622,11 +2625,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98519999999999996</v>
+        <v>0.97919999999999996</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.97040000000000004</v>
+        <v>0.95840000000000003</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2636,6 +2639,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2694,7 +2698,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.91599999999999404</v>
+        <v>0.98199999999999399</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
@@ -2716,7 +2720,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.1599999999999408E-3</v>
+        <v>9.8199999999999399E-3</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2735,11 +2739,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0091000000000001</v>
+        <v>1.0098</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0182</v>
+        <v>1.0196000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2760,11 +2764,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.99080000000000001</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.98160000000000003</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2774,6 +2778,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2834,7 +2839,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>2.0139999999999998</v>
+        <v>2.6519999999999802</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$1</f>
@@ -2856,7 +2861,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>2.0139999999999998E-2</v>
+        <v>2.6519999999999801E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2875,11 +2880,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0201</v>
+        <v>1.0265</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0402</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2900,11 +2905,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.9798</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.95960000000000001</v>
+        <v>0.94679999999999997</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2972,7 +2977,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.526</v>
+        <v>1.37</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$2</f>
@@ -2994,7 +2999,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.5260000000000001E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3013,15 +3018,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0152000000000001</v>
+        <v>1.0137</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0304</v>
+        <v>1.0274000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -3038,15 +3043,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98470000000000002</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.96940000000000004</v>
+        <v>0.97260000000000002</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -3110,7 +3115,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.94900000000001095</v>
+        <v>0.96700000000000597</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$3</f>
@@ -3132,7 +3137,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.4900000000001095E-3</v>
+        <v>9.6700000000000605E-3</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3151,11 +3156,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0094000000000001</v>
+        <v>1.0096000000000001</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0187999999999999</v>
+        <v>1.0192000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -3176,11 +3181,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.99050000000000005</v>
+        <v>0.99029999999999996</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.98099999999999998</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -3248,7 +3253,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.1040000000000101</v>
+        <v>0.97399999999998599</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$3</f>
@@ -3270,7 +3275,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.10400000000001E-2</v>
+        <v>9.7399999999998599E-3</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3289,11 +3294,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0109999999999999</v>
+        <v>1.0097</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.022</v>
+        <v>1.0194000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -3314,11 +3319,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.9889</v>
+        <v>0.99019999999999997</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.9778</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -3386,7 +3391,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.224</v>
+        <v>1.8359999999999901</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$3</f>
@@ -3408,7 +3413,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.2239999999999999E-2</v>
+        <v>1.8359999999999901E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3427,11 +3432,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0122</v>
+        <v>1.0183</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0244</v>
+        <v>1.0366</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -3452,11 +3457,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98770000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.97540000000000004</v>
+        <v>0.96319999999999995</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -3524,7 +3529,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.88500000000000201</v>
+        <v>0.96001000000000503</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$3</f>
@@ -3546,7 +3551,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>8.8500000000000193E-3</v>
+        <v>9.6001000000000506E-3</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3565,11 +3570,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0087999999999999</v>
+        <v>1.0096000000000001</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0176000000000001</v>
+        <v>1.0192000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -3590,11 +3595,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.99109999999999998</v>
+        <v>0.99029999999999996</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.98219999999999996</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -3662,7 +3667,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.78099999999999803</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$4</f>
@@ -3684,7 +3689,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>7.8099999999999802E-3</v>
+        <v>1.0029999999999999E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3703,11 +3708,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0078</v>
+        <v>1.01</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0156000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -3728,11 +3733,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.99209999999999998</v>
+        <v>0.9899</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.98419999999999996</v>
+        <v>0.9798</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>

--- a/volatility/src/calc_new.xlsx
+++ b/volatility/src/calc_new.xlsx
@@ -257,11 +257,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USDJPY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -364,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,290 +697,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1">
-        <v>1.0650000000000099</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="10">
+        <v>1.121</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
-      <c r="A2" t="s">
+      <c r="J1" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="10">
         <v>1.4159999999999899</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>400</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
-      <c r="A3" t="s">
+      <c r="J2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>1.1809999999999801</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="C3" s="10">
+        <v>1.1789999999999901</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1">
-      <c r="A4" t="s">
+      <c r="J3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="10">
         <v>2.5389999999999802</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1">
-      <c r="A5" t="s">
+      <c r="J4" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="10">
         <v>2.0739999999999901</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" ht="24" customHeight="1">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="10">
         <v>1.171</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" ht="24" customHeight="1">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
-        <v>1.37</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="C7" s="10">
+        <v>1.3459999999999801</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
-      <c r="A8" t="s">
+      <c r="J7" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="10">
         <v>1.373</v>
       </c>
-      <c r="K8" s="1">
-        <f>D2*10000</f>
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="24" customHeight="1">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="10">
         <v>0.95899999999999797</v>
       </c>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
-      <c r="A10" t="s">
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>0.96001000000000503</v>
+      <c r="C10" s="10">
+        <v>0.98500000000000199</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1">
-      <c r="A11" t="s">
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="10">
         <v>0.98199999999999399</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f>VLOOKUP(F11,A1:B20,2,0)</f>
+        <v>USDJPY</v>
+      </c>
+      <c r="H11" s="5">
+        <f>IF(L11="JPY",M11,M11/100)</f>
+        <v>1.121</v>
+      </c>
+      <c r="I11" s="5">
+        <f>VLOOKUP(L11,I1:J7,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="J11" s="5">
+        <f>ROUNDDOWN(E2*10000*(1/M11)*(100/I11)/100*G2,0)</f>
+        <v>4281</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f>MID(G11,4,3)</f>
+        <v>JPY</v>
+      </c>
+      <c r="M11" s="7">
+        <f>VLOOKUP(G11,B1:C20,2,0)</f>
+        <v>1.121</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="5">
-        <f>IF(K11="JPY",L11,L11/100)</f>
-        <v>1.0650000000000099</v>
-      </c>
-      <c r="H11" s="5">
-        <f>VLOOKUP(K11,master!$H$1:$I$7,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="I11" s="5">
-        <f>ROUNDDOWN($K$8*(1/L11)*(100/H11)/100*$F$2,0)</f>
-        <v>5633</v>
-      </c>
-      <c r="K11" s="9" t="str">
-        <f>MID(F11,4,3)</f>
-        <v>JPY</v>
-      </c>
-      <c r="L11" s="7">
-        <f>VLOOKUP(F11,master!$A$1:$B$20,2,0)</f>
-        <v>1.0650000000000099</v>
-      </c>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
-      <c r="A12" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.85999999999999399</v>
+      </c>
+      <c r="G15" s="5">
+        <v>112.587</v>
+      </c>
+      <c r="H15" s="5">
+        <f>G15+M11</f>
+        <v>113.708</v>
+      </c>
+      <c r="I15" s="5">
+        <f>G15-M11</f>
+        <v>111.46600000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1.8359999999999901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.97399999999998599</v>
-      </c>
-      <c r="F15" s="5">
-        <v>112.587</v>
-      </c>
-      <c r="G15" s="5">
-        <f>F15+L11</f>
-        <v>113.65200000000002</v>
-      </c>
-      <c r="H15" s="5">
-        <f>F15-L11</f>
-        <v>111.52199999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>1.8359999999999901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="24" customHeight="1">
-      <c r="A17" t="s">
+      <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>0.96700000000000597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="24" customHeight="1">
-      <c r="A18" t="s">
+      <c r="C17" s="10">
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="10">
         <v>0.83900000000001196</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="24" customHeight="1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="24" customHeight="1">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>1.9249999999999901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="24" customHeight="1">
-      <c r="A20" t="s">
+      <c r="C19" s="10">
+        <v>2.0270000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10">
         <v>2.6519999999999802</v>
       </c>
     </row>
@@ -987,6 +1054,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1042,14 +1110,14 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>1.373</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -1179,14 +1247,14 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>1.171</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -1316,14 +1384,14 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>1.0189999999999999</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -1453,14 +1521,14 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>1.4159999999999899</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -1590,14 +1658,14 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>2.5389999999999802</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -1727,14 +1795,14 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>1.17</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -1864,14 +1932,14 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.0650000000000099</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.121</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -1886,7 +1954,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.0650000000000099</v>
+        <v>1.121</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -1905,11 +1973,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,2)</f>
-        <v>101.06</v>
+        <v>101.12</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,2)</f>
-        <v>102.12</v>
+        <v>102.24</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,2)</f>
@@ -1930,11 +1998,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,2)</f>
-        <v>98.93</v>
+        <v>98.87</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,2)</f>
-        <v>97.86</v>
+        <v>97.74</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,2)</f>
@@ -2001,15 +2069,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>0.83900000000001196</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$5</f>
+        <f>master!$J$5</f>
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -2082,7 +2150,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2140,15 +2207,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>0.95899999999999797</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$6</f>
+        <f>master!$J$6</f>
         <v>73</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -2221,7 +2288,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2279,15 +2345,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.1809999999999801</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.1789999999999901</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$6</f>
+        <f>master!$J$6</f>
         <v>73</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -2302,7 +2368,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.18099999999998E-2</v>
+        <v>1.1789999999999901E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2321,11 +2387,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0118</v>
+        <v>1.0117</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0236000000000001</v>
+        <v>1.0234000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2346,11 +2412,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98809999999999998</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.97619999999999996</v>
+        <v>0.97640000000000005</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2360,7 +2426,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2420,15 +2485,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.9249999999999901</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>2.0270000000000001</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$1</f>
-        <v>81</v>
+        <f>master!$J$1</f>
+        <v>76</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -2443,7 +2508,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.9249999999999899E-2</v>
+        <v>2.027E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -2462,11 +2527,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0192000000000001</v>
+        <v>1.0202</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0384</v>
+        <v>1.0404</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -2487,11 +2552,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98070000000000002</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.96140000000000003</v>
+        <v>0.95940000000000003</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -2558,15 +2623,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>2.0739999999999901</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$6</f>
+        <f>master!$J$6</f>
         <v>73</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -2639,7 +2704,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2697,15 +2761,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>0.98199999999999399</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$6</f>
+        <f>master!$J$6</f>
         <v>73</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -2778,7 +2842,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2838,15 +2901,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>2.6519999999999802</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$1</f>
-        <v>81</v>
+        <f>master!$J$1</f>
+        <v>76</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -2976,15 +3039,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.37</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.3459999999999801</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$2</f>
-        <v>85</v>
+        <f>master!$J$2</f>
+        <v>80</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -2999,7 +3062,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.37E-2</v>
+        <v>1.34599999999998E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3018,15 +3081,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0137</v>
+        <v>1.0134000000000001</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0274000000000001</v>
+        <v>1.0267999999999999</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -3043,15 +3106,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.98629999999999995</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.97260000000000002</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -3114,15 +3177,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.96700000000000597</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.036</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$3</f>
-        <v>111</v>
+        <f>master!$J$3</f>
+        <v>110</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -3137,7 +3200,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.6700000000000605E-3</v>
+        <v>1.0360000000000001E-2</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3156,11 +3219,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0096000000000001</v>
+        <v>1.0103</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0192000000000001</v>
+        <v>1.0206</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -3181,11 +3244,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.99029999999999996</v>
+        <v>0.98960000000000004</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.98060000000000003</v>
+        <v>0.97919999999999996</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -3252,15 +3315,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.97399999999998599</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>0.85999999999999399</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$3</f>
-        <v>111</v>
+        <f>master!$J$3</f>
+        <v>110</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -3275,7 +3338,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.7399999999998599E-3</v>
+        <v>8.5999999999999393E-3</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3294,15 +3357,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0097</v>
+        <v>1.0085999999999999</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0194000000000001</v>
+        <v>1.0172000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -3319,15 +3382,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.99019999999999997</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.98040000000000005</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -3390,15 +3453,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>1.8359999999999901</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$3</f>
-        <v>111</v>
+        <f>master!$J$3</f>
+        <v>110</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -3528,15 +3591,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.96001000000000503</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>0.98500000000000199</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$3</f>
-        <v>111</v>
+        <f>master!$J$3</f>
+        <v>110</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -3551,7 +3614,7 @@
       </c>
       <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.6001000000000506E-3</v>
+        <v>9.8500000000000202E-3</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="6">
@@ -3570,11 +3633,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <f>ROUNDDOWN(F3+J3,4)</f>
-        <v>1.0096000000000001</v>
+        <v>1.0098</v>
       </c>
       <c r="G4" s="5">
         <f>ROUNDDOWN(F4+J3,4)</f>
-        <v>1.0192000000000001</v>
+        <v>1.0196000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>ROUNDDOWN(F4-J3,4)</f>
@@ -3595,11 +3658,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <f>ROUNDDOWN(F3-J3,4)</f>
-        <v>0.99029999999999996</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="G5" s="5">
         <f>ROUNDDOWN(F5-J3,4)</f>
-        <v>0.98060000000000003</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="H5" s="5">
         <f>ROUNDDOWN(F5+J3,4)</f>
@@ -3666,15 +3729,15 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
         <v>1.0029999999999999</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$4</f>
-        <v>142</v>
+        <f>master!$J$4</f>
+        <v>138</v>
       </c>
       <c r="E3" s="5">
-        <f>ROUNDDOWN(master!$D$2*(1/C3)*(100/D3)/100*master!$F$2,0)</f>
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
